--- a/nbateamsdata(dount_chart).xlsx
+++ b/nbateamsdata(dount_chart).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003300DB-96B5-4679-9898-651692858895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666E28F3-ED00-4A42-B95A-9DA37CB6990E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" xr2:uid="{F65B8C14-A7A2-4CC1-94FB-4B706EFA1631}"/>
+    <workbookView xWindow="5158" yWindow="3020" windowWidth="15475" windowHeight="7877" xr2:uid="{F65B8C14-A7A2-4CC1-94FB-4B706EFA1631}"/>
   </bookViews>
   <sheets>
     <sheet name="Boston Celtics" sheetId="1" r:id="rId1"/>
@@ -49,35 +49,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>21-22</t>
+    <t>21-22年</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>20-21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19-20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18-19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17-18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16-17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15-16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14-15</t>
+    <t>20-21年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19-20年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18-19年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17-18年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16-17年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15-16年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14-15年</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -453,7 +453,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
